--- a/ExcelConfig/pbjson/excel/基础效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/基础效果表.xlsx
@@ -18,16 +18,16 @@
     <author>PBJSON</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="1">
-      <text>
-        <t>key
-string</t>
-      </text>
-    </comment>
     <comment ref="B1" authorId="1">
       <text>
         <t>value
 string</t>
+      </text>
+    </comment>
+    <comment ref="A1" authorId="1">
+      <text>
+        <t>key
+int64</t>
       </text>
     </comment>
   </commentList>
@@ -77,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
@@ -96,8 +97,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="1" width="13.0" customWidth="true"/>
-    <col min="2" max="2" style="1" width="9.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" style="1" width="13.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ExcelConfig/pbjson/excel/基础效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/基础效果表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\正式工作\猫咪共济会\配置表\excel备份\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD54207-56A9-483D-AF15-C0C3BF2CAE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C77833-FAF5-4649-95C9-E95B05A84E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2925" windowWidth="19290" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9090" yWindow="5295" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#基础效果配置" sheetId="1" r:id="rId1"/>
@@ -92,18 +92,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获得X点“猫咪集群”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去X点“猫咪集群”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将“猫咪集群”设为X点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏结束，进入结局1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -324,18 +312,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>（公共变量）敌军实力提升X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（公共变量）敌军实力下降X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（公共变量）敌军实力设为X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>（公共变量）我军实力提升X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -369,6 +345,30 @@
   </si>
   <si>
     <t>在X人物处，生成动画Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得X点“猫咪隐匿度”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去X点“猫咪隐匿度”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将“猫咪隐匿度”设为X点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（公共变量）军队实力差提升X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（公共变量）军队实力差下降X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（公共变量）军队实力差设为X</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +457,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -845,7 +851,7 @@
         <v>5006</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -853,7 +859,7 @@
         <v>5007</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -861,7 +867,7 @@
         <v>5008</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -869,7 +875,7 @@
         <v>5009</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -877,7 +883,7 @@
         <v>5010</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -885,7 +891,7 @@
         <v>5011</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -893,7 +899,7 @@
         <v>5012</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -901,7 +907,7 @@
         <v>5013</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -909,7 +915,7 @@
         <v>5014</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -917,7 +923,7 @@
         <v>5015</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -925,7 +931,7 @@
         <v>5016</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -933,7 +939,7 @@
         <v>5017</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -941,23 +947,23 @@
         <v>5018</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>5019</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>5020</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -965,7 +971,7 @@
         <v>5021</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -973,7 +979,7 @@
         <v>5022</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -981,7 +987,7 @@
         <v>5023</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -989,7 +995,7 @@
         <v>5024</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -997,7 +1003,7 @@
         <v>5025</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1005,7 +1011,7 @@
         <v>5026</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1017,7 +1023,7 @@
         <v>5100</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1025,7 +1031,7 @@
         <v>5101</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1033,7 +1039,7 @@
         <v>5102</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,7 +1047,7 @@
         <v>5103</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1049,7 +1055,7 @@
         <v>5104</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1057,7 +1063,7 @@
         <v>5105</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1065,7 +1071,7 @@
         <v>5106</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1073,7 +1079,7 @@
         <v>5107</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1081,7 +1087,7 @@
         <v>5108</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1089,7 +1095,7 @@
         <v>5109</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1097,7 +1103,7 @@
         <v>5110</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1105,7 +1111,7 @@
         <v>5111</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1113,7 +1119,7 @@
         <v>5117</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1121,7 +1127,7 @@
         <v>5118</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1129,7 +1135,7 @@
         <v>5119</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1137,7 +1143,7 @@
         <v>5120</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1145,7 +1151,7 @@
         <v>5121</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1153,7 +1159,7 @@
         <v>5122</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1161,7 +1167,7 @@
         <v>5123</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1169,23 +1175,23 @@
         <v>5124</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>5125</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>41</v>
+      <c r="B50" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>5126</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>42</v>
+      <c r="B51" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1193,7 +1199,7 @@
         <v>5127</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1205,7 +1211,7 @@
         <v>5200</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1213,7 +1219,7 @@
         <v>5201</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,7 +1227,7 @@
         <v>5202</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1229,7 +1235,7 @@
         <v>5203</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1237,7 +1243,7 @@
         <v>5204</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1245,7 +1251,7 @@
         <v>5205</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1253,7 +1259,7 @@
         <v>5206</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1261,7 +1267,7 @@
         <v>5207</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1269,7 +1275,7 @@
         <v>5208</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1277,7 +1283,7 @@
         <v>5209</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1285,7 +1291,7 @@
         <v>5210</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1293,7 +1299,7 @@
         <v>5211</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1305,7 +1311,7 @@
         <v>5300</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1313,7 +1319,7 @@
         <v>5301</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1321,7 +1327,7 @@
         <v>5302</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1329,7 +1335,7 @@
         <v>5303</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1341,7 +1347,7 @@
         <v>5500</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1349,7 +1355,7 @@
         <v>5501</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1357,7 +1363,7 @@
         <v>5502</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1365,31 +1371,31 @@
         <v>5503</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
         <v>5504</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="B76" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
         <v>5505</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="B77" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
         <v>5506</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>71</v>
+      <c r="B78" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1397,7 +1403,7 @@
         <v>5507</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1405,7 +1411,7 @@
         <v>5508</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1413,7 +1419,7 @@
         <v>5509</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/基础效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/基础效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C77833-FAF5-4649-95C9-E95B05A84E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B65DD7-2610-4AC5-A2AA-66C5649909C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9090" yWindow="5295" windowWidth="25020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13350" yWindow="4260" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#基础效果配置" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/基础效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/基础效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B65DD7-2610-4AC5-A2AA-66C5649909C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC9085-3EDE-4684-AF19-76B46B912E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="4260" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12705" yWindow="4290" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#基础效果配置" sheetId="1" r:id="rId1"/>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/基础效果表.xlsx
+++ b/ExcelConfig/pbjson/excel/基础效果表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DC9085-3EDE-4684-AF19-76B46B912E99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1779B5AD-F7D6-4A50-BD6F-8EEBFAA6E433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="4290" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="4215" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#基础效果配置" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>基础效果编号</t>
   </si>
@@ -369,6 +369,10 @@
   </si>
   <si>
     <t>（公共变量）军队实力差设为X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放到全图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -778,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1339,86 +1343,94 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="2">
+        <v>5304</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
-        <v>5500</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
+        <v>5502</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
         <v>5503</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>5504</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>5505</v>
+        <v>5504</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
+        <v>5505</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
         <v>5506</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B79" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>5507</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>5508</v>
+        <v>5507</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
+        <v>5508</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>5509</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>68</v>
       </c>
     </row>
